--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N2">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O2">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P2">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q2">
-        <v>5.311725778753778</v>
+        <v>18.11585480698311</v>
       </c>
       <c r="R2">
-        <v>47.80553200878401</v>
+        <v>163.042693262848</v>
       </c>
       <c r="S2">
-        <v>0.0433653878394943</v>
+        <v>0.08608922206563822</v>
       </c>
       <c r="T2">
-        <v>0.04336538783949431</v>
+        <v>0.08608922206563822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q3">
-        <v>6.196417749946112</v>
+        <v>13.54589990556445</v>
       </c>
       <c r="R3">
-        <v>55.767759749515</v>
+        <v>121.91309915008</v>
       </c>
       <c r="S3">
-        <v>0.05058808947117442</v>
+        <v>0.06437212030422806</v>
       </c>
       <c r="T3">
-        <v>0.05058808947117442</v>
+        <v>0.06437212030422808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N4">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q4">
-        <v>3.924035330074445</v>
+        <v>19.99953342902045</v>
       </c>
       <c r="R4">
-        <v>35.31631797067001</v>
+        <v>179.995800861184</v>
       </c>
       <c r="S4">
-        <v>0.03203616321181409</v>
+        <v>0.09504074154515832</v>
       </c>
       <c r="T4">
-        <v>0.03203616321181409</v>
+        <v>0.09504074154515833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H5">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N5">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O5">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P5">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q5">
-        <v>2.605982586303556</v>
+        <v>4.868734145109333</v>
       </c>
       <c r="R5">
-        <v>23.45384327673201</v>
+        <v>43.818607305984</v>
       </c>
       <c r="S5">
-        <v>0.02127546681909774</v>
+        <v>0.02313694492822413</v>
       </c>
       <c r="T5">
-        <v>0.02127546681909775</v>
+        <v>0.02313694492822413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
         <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N6">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O6">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P6">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q6">
-        <v>23.18918664394312</v>
+        <v>36.17774792104311</v>
       </c>
       <c r="R6">
-        <v>208.7026797954881</v>
+        <v>325.599731289388</v>
       </c>
       <c r="S6">
-        <v>0.1893185217729646</v>
+        <v>0.1719220101835223</v>
       </c>
       <c r="T6">
-        <v>0.1893185217729647</v>
+        <v>0.1719220101835223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
         <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q7">
         <v>27.05145064191445</v>
@@ -883,10 +883,10 @@
         <v>243.46305577723</v>
       </c>
       <c r="S7">
-        <v>0.2208503784965319</v>
+        <v>0.1285524953871748</v>
       </c>
       <c r="T7">
-        <v>0.2208503784965319</v>
+        <v>0.1285524953871748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
         <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N8">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q8">
-        <v>17.13100251343778</v>
+        <v>39.93949425200044</v>
       </c>
       <c r="R8">
-        <v>154.17902262094</v>
+        <v>359.455448268004</v>
       </c>
       <c r="S8">
-        <v>0.1398589835051456</v>
+        <v>0.1897983852533618</v>
       </c>
       <c r="T8">
-        <v>0.1398589835051456</v>
+        <v>0.1897983852533619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
         <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N9">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O9">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P9">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q9">
-        <v>11.37683289795823</v>
+        <v>9.722965792839332</v>
       </c>
       <c r="R9">
-        <v>102.391496081624</v>
+        <v>87.50669213555399</v>
       </c>
       <c r="S9">
-        <v>0.0928814459847412</v>
+        <v>0.04620497184343159</v>
       </c>
       <c r="T9">
-        <v>0.09288144598474121</v>
+        <v>0.0462049718434316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H10">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N10">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O10">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P10">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q10">
-        <v>3.776543784568889</v>
+        <v>11.038109957488</v>
       </c>
       <c r="R10">
-        <v>33.98889406112</v>
+        <v>99.34298961739201</v>
       </c>
       <c r="S10">
-        <v>0.03083202950079344</v>
+        <v>0.05245473147360508</v>
       </c>
       <c r="T10">
-        <v>0.03083202950079345</v>
+        <v>0.05245473147360509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H11">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q11">
-        <v>4.405544245855556</v>
+        <v>8.253606259480001</v>
       </c>
       <c r="R11">
-        <v>39.6498982127</v>
+        <v>74.28245633532001</v>
       </c>
       <c r="S11">
-        <v>0.03596724357077067</v>
+        <v>0.03922235796683583</v>
       </c>
       <c r="T11">
-        <v>0.03596724357077067</v>
+        <v>0.03922235796683585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H12">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N12">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q12">
-        <v>2.789920235622223</v>
+        <v>12.185847780304</v>
       </c>
       <c r="R12">
-        <v>25.1092821206</v>
+        <v>109.672630022736</v>
       </c>
       <c r="S12">
-        <v>0.02277714966818118</v>
+        <v>0.05790895140163471</v>
       </c>
       <c r="T12">
-        <v>0.02277714966818118</v>
+        <v>0.05790895140163473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H13">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N13">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O13">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P13">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q13">
-        <v>1.852807872417778</v>
+        <v>2.966551864104</v>
       </c>
       <c r="R13">
-        <v>16.67527085176</v>
+        <v>26.698966776936</v>
       </c>
       <c r="S13">
-        <v>0.0151264834304598</v>
+        <v>0.01409749332389426</v>
       </c>
       <c r="T13">
-        <v>0.01512648343045981</v>
+        <v>0.01409749332389427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H14">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N14">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O14">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P14">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q14">
-        <v>3.791683826247111</v>
+        <v>2.103964419891556</v>
       </c>
       <c r="R14">
-        <v>34.125154436224</v>
+        <v>18.935679779024</v>
       </c>
       <c r="S14">
-        <v>0.03095563410815257</v>
+        <v>0.009998350179557976</v>
       </c>
       <c r="T14">
-        <v>0.03095563410815258</v>
+        <v>0.009998350179557977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H15">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.110785</v>
       </c>
       <c r="O15">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P15">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q15">
-        <v>4.423205930004445</v>
+        <v>1.573212621782222</v>
       </c>
       <c r="R15">
-        <v>39.80885337004</v>
+        <v>14.15891359604</v>
       </c>
       <c r="S15">
-        <v>0.03611143508496343</v>
+        <v>0.007476139116596801</v>
       </c>
       <c r="T15">
-        <v>0.03611143508496343</v>
+        <v>0.007476139116596803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H16">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N16">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O16">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P16">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q16">
-        <v>2.801104935457778</v>
+        <v>2.322733715710222</v>
       </c>
       <c r="R16">
-        <v>25.20994441912</v>
+        <v>20.904603441392</v>
       </c>
       <c r="S16">
-        <v>0.02286846252325688</v>
+        <v>0.01103797423757464</v>
       </c>
       <c r="T16">
-        <v>0.02286846252325688</v>
+        <v>0.01103797423757464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H17">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N17">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O17">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P17">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q17">
-        <v>1.860235719150223</v>
+        <v>0.5654518387546666</v>
       </c>
       <c r="R17">
-        <v>16.742121472352</v>
+        <v>5.089066548792</v>
       </c>
       <c r="S17">
-        <v>0.0151871250124581</v>
+        <v>0.002687110789561504</v>
       </c>
       <c r="T17">
-        <v>0.01518712501245811</v>
+        <v>0.002687110789561504</v>
       </c>
     </row>
   </sheetData>
